--- a/sum_findings.xlsx
+++ b/sum_findings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganbittner/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D190574-18A7-8B4D-AB14-565D7E1B76F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE09727-1025-6843-AE4C-6CCAE9910848}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{4FEF0F19-116A-DB45-8A9F-7D5CB7431A18}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t xml:space="preserve">Core </t>
   </si>
@@ -57,71 +57,139 @@
     <t>study_char</t>
   </si>
   <si>
-    <t xml:space="preserve">quality </t>
-  </si>
-  <si>
     <t>implication</t>
   </si>
   <si>
-    <t>core_test</t>
-  </si>
-  <si>
-    <t>core_test1</t>
-  </si>
-  <si>
-    <t>core_test2</t>
-  </si>
-  <si>
-    <t>Core (low risk only)_1</t>
-  </si>
-  <si>
-    <t>Core (low risk only)_2</t>
-  </si>
-  <si>
-    <t>Core (low risk only)_test</t>
-  </si>
-  <si>
-    <t>Core (ICU only)_test</t>
-  </si>
-  <si>
-    <t>Core (ICU only)_test1</t>
-  </si>
-  <si>
-    <t>Core (ICU only)_test2</t>
-  </si>
-  <si>
-    <t>Core (intraoperative only)_test</t>
-  </si>
-  <si>
-    <t>Core (intraoperative only)_test1</t>
-  </si>
-  <si>
-    <t>Core (intraoperative only)_test2</t>
-  </si>
-  <si>
-    <t>Nasopharyngeal_test</t>
-  </si>
-  <si>
-    <t>Nasopharyngeal_test1</t>
-  </si>
-  <si>
-    <t>Sublingual_test</t>
-  </si>
-  <si>
-    <t>Sublingual_test1</t>
-  </si>
-  <si>
-    <t>Sublingual_test2</t>
+    <t>► study char core bullet 1</t>
+  </si>
+  <si>
+    <t>► study char core bullet 2</t>
+  </si>
+  <si>
+    <t>► study char corelw bullet 1</t>
+  </si>
+  <si>
+    <t>► study char corelw bullet 2</t>
+  </si>
+  <si>
+    <t>► study char coreicu bullet 1</t>
+  </si>
+  <si>
+    <t>► study char coreicu bullet 2</t>
+  </si>
+  <si>
+    <t>► study char coreop bullet 1</t>
+  </si>
+  <si>
+    <t>► study char coreop bullet 2</t>
+  </si>
+  <si>
+    <t>► study char npa bullet 1</t>
+  </si>
+  <si>
+    <t>► study char npa bullet 2</t>
+  </si>
+  <si>
+    <t>► study char sl bullet 1</t>
+  </si>
+  <si>
+    <t>► study char sl bullet 2</t>
+  </si>
+  <si>
+    <t>► implications core bullet 1</t>
+  </si>
+  <si>
+    <t>►  implications corelw bullet 1</t>
+  </si>
+  <si>
+    <t>►  implications corelw bullet 2</t>
+  </si>
+  <si>
+    <t>►  implications coreicu bullet 1</t>
+  </si>
+  <si>
+    <t>►  implications coreop bullet 1</t>
+  </si>
+  <si>
+    <t>►  implications coreop bullet 2</t>
+  </si>
+  <si>
+    <t>►  implications sl bullet 1</t>
+  </si>
+  <si>
+    <t>►  implications sl bullet 2</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>► grade core bullet 1</t>
+  </si>
+  <si>
+    <t>► gradecorelw bullet 1</t>
+  </si>
+  <si>
+    <t>► grade corelw bullet 2</t>
+  </si>
+  <si>
+    <t>► grade coreicu bullet 1</t>
+  </si>
+  <si>
+    <t>► grade coreicu bullet 2</t>
+  </si>
+  <si>
+    <t>► grade coreop bullet 1</t>
+  </si>
+  <si>
+    <t>► gradecoreop bullet 2</t>
+  </si>
+  <si>
+    <t>► grade npa bullet 2</t>
+  </si>
+  <si>
+    <t>► grade sl bullet 1</t>
+  </si>
+  <si>
+    <t>► grade sl bullet 2</t>
+  </si>
+  <si>
+    <t>► grade npa bullet 1</t>
+  </si>
+  <si>
+    <t>►  implications npa bullet 1</t>
+  </si>
+  <si>
+    <t>►  implications coreicu bullet 2</t>
+  </si>
+  <si>
+    <t>► grade core bullet 2</t>
+  </si>
+  <si>
+    <t>►  implications core bullet 2</t>
+  </si>
+  <si>
+    <t>►  implications npa bullet 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Apple Color Emoji"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,8 +215,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AA2A36-6398-B24D-8814-9C86763DAAC6}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -496,86 +565,174 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" ht="32" x14ac:dyDescent="0.5">
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>